--- a/public/TemplateImport/template_import_scientific.xlsx
+++ b/public/TemplateImport/template_import_scientific.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\learning-app\public\TemplateImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA3329E-2A62-43C3-B460-E178B9BAF0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B28BAF-8AA2-445D-9420-BB9DA0D3F7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{087D9E47-7B34-47D3-8A7D-01AE6CA50FA8}"/>
   </bookViews>
@@ -36,40 +36,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>Mã chuyên ngành</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên Chuyên ngành </t>
-  </si>
-  <si>
-    <t>Mã Khoa</t>
-  </si>
-  <si>
-    <t>FacultyId</t>
-  </si>
-  <si>
-    <t>majorName</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> majorId</t>
-  </si>
-  <si>
-    <t>DCT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>ĐỀ TÀI NGHIÊN CỨU KHOÁ HỌC</t>
+  </si>
+  <si>
+    <t>Mã đề tài</t>
+  </si>
+  <si>
+    <t>Tên đề tài</t>
+  </si>
+  <si>
+    <t>Số lượng thành viên</t>
+  </si>
+  <si>
+    <t>Cấp</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Nhóm đề tài nghiên cứu</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Chủ nhiệm</t>
+  </si>
+  <si>
+    <t>Ngân sách</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	DCTPROJECT005</t>
+  </si>
+  <si>
+    <t>Đề tài test</t>
+  </si>
+  <si>
+    <t>NCKHDCT2024-2025</t>
+  </si>
+  <si>
+    <t>test import</t>
+  </si>
+  <si>
+    <t>Chưa thực hiện</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Sang</t>
+  </si>
+  <si>
+    <t>Cơ sở</t>
+  </si>
+  <si>
+    <t>20-2-2024</t>
+  </si>
+  <si>
+    <t>20-3-2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +125,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,6 +182,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,55 +524,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DBA273-47A2-4126-A988-E125690B883F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{E6A59D68-8BD7-4F76-9761-AA72AD885E3A}">
+      <formula1>"Cơ sở, Thành Phố, Bộ, Quốc gia, Quốc tế"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{06CCBF21-AE8D-433F-B4CF-46AC7C56742A}">
+      <formula1>"Xác định chủ đề và vấn đề nghiên cứu, Tìm hiểu và tổng quan tài liệu, Bảo vệ kết quả nghiên cứu, Thu thập và phân tích dữ liệu,Viết và trình bày kết quả nghiên cứu,Chưa thực hiện, Hoàn thành"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/TemplateImport/template_import_scientific.xlsx
+++ b/public/TemplateImport/template_import_scientific.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\learning-app\public\TemplateImport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\learning-app\public\TemplateImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B28BAF-8AA2-445D-9420-BB9DA0D3F7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2346AE79-43A3-49E7-AC7F-04B47F95027D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{087D9E47-7B34-47D3-8A7D-01AE6CA50FA8}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{087D9E47-7B34-47D3-8A7D-01AE6CA50FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>ĐỀ TÀI NGHIÊN CỨU KHOÁ HỌC</t>
-  </si>
-  <si>
-    <t>Mã đề tài</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Tên đề tài</t>
   </si>
@@ -53,12 +47,6 @@
     <t>Cấp</t>
   </si>
   <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
-    <t>Nhóm đề tài nghiên cứu</t>
-  </si>
-  <si>
     <t>Mô tả</t>
   </si>
   <si>
@@ -74,9 +62,6 @@
     <t>Ngày kết thúc</t>
   </si>
   <si>
-    <t xml:space="preserve">	DCTPROJECT005</t>
-  </si>
-  <si>
     <t>Đề tài test</t>
   </si>
   <si>
@@ -86,35 +71,60 @@
     <t>test import</t>
   </si>
   <si>
-    <t>Chưa thực hiện</t>
-  </si>
-  <si>
     <t>Nguyễn Thanh Sang</t>
   </si>
   <si>
     <t>Cơ sở</t>
   </si>
   <si>
-    <t>20-2-2024</t>
-  </si>
-  <si>
-    <t>20-3-2024</t>
+    <t>Mã nhóm đề tài nghiên cứu</t>
+  </si>
+  <si>
+    <t>IMPORT ĐỀ TÀI NGHIÊN CỨU KHOA HỌC</t>
+  </si>
+  <si>
+    <t>Mã trạng thái</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>scientificResearchName</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>scientificResearchGroupId</t>
+  </si>
+  <si>
+    <t>numberOfMember</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>instructorName</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>finishDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -131,8 +141,28 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,43 +185,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,279 +566,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DBA273-47A2-4126-A988-E125690B883F}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="22.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="3" spans="1:10" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="37.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H4" s="7">
         <v>1000</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="I4" s="6">
+        <v>44117.333333333336</v>
+      </c>
+      <c r="J4" s="6">
+        <v>44185.333333333336</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{E6A59D68-8BD7-4F76-9761-AA72AD885E3A}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G1048576" xr:uid="{E6A59D68-8BD7-4F76-9761-AA72AD885E3A}">
       <formula1>"Cơ sở, Thành Phố, Bộ, Quốc gia, Quốc tế"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{06CCBF21-AE8D-433F-B4CF-46AC7C56742A}">
-      <formula1>"Xác định chủ đề và vấn đề nghiên cứu, Tìm hiểu và tổng quan tài liệu, Bảo vệ kết quả nghiên cứu, Thu thập và phân tích dữ liệu,Viết và trình bày kết quả nghiên cứu,Chưa thực hiện, Hoàn thành"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
